--- a/FYP/HungryMen_Checklist.xlsx
+++ b/FYP/HungryMen_Checklist.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26812"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27309"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guixiang/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benchuaweilun/Documents/SmartHawker/FYP/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="460" windowWidth="33600" windowHeight="19700" tabRatio="500"/>
+    <workbookView xWindow="38260" yWindow="3360" windowWidth="25600" windowHeight="15540" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Functions" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,9 @@
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -29,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="42">
   <si>
     <t>Done</t>
   </si>
@@ -59,68 +62,108 @@
   </si>
   <si>
     <t>Push Notification Module</t>
+  </si>
+  <si>
+    <t>UI</t>
+  </si>
+  <si>
+    <t>In Charge</t>
+  </si>
+  <si>
+    <t>Wei Lun, Zong Wei</t>
+  </si>
+  <si>
+    <t>Login/Sign Up</t>
+  </si>
+  <si>
+    <t>Gao Min, Wendy</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>Ching Yi</t>
+  </si>
+  <si>
+    <t>External meeting minutes 1-7
+Meet Ben Gan's slides</t>
+  </si>
+  <si>
+    <t>Supervisor meeting minutes</t>
+  </si>
+  <si>
+    <t>FYP Acceptance Slides</t>
+  </si>
+  <si>
+    <t>Internal meeting minutes 1-8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User guide </t>
+  </si>
+  <si>
+    <t>24th July 2016</t>
+  </si>
+  <si>
+    <t>3rd Aug 2016</t>
+  </si>
+  <si>
+    <t>8th Aug 2016</t>
+  </si>
+  <si>
+    <t>Wendy</t>
+  </si>
+  <si>
+    <t>Wendy and Weilun</t>
+  </si>
+  <si>
+    <t>Data Recording Module</t>
+  </si>
+  <si>
+    <t>Local Storage Module</t>
+  </si>
+  <si>
+    <t>23rd July 2016</t>
   </si>
   <si>
     <t xml:space="preserve">Authentication Module (I) 
 Enquiry Module (FAQ)
-Data Recording Module
 Business Calendar Module
-Local Storage Module
 Tax Calculation Module
-Analytics Module II (Graphical)
+Analytics Module I (Graphical)
 </t>
   </si>
   <si>
-    <t>UI</t>
-  </si>
-  <si>
-    <t>In Charge</t>
-  </si>
-  <si>
-    <t>Wei Lun, Zong Wei</t>
-  </si>
-  <si>
-    <t>Login/Sign Up</t>
-  </si>
-  <si>
-    <t>Gao Min, Wendy</t>
-  </si>
-  <si>
-    <t>Testing</t>
-  </si>
-  <si>
-    <t>Ching Yi</t>
-  </si>
-  <si>
-    <t>External meeting minutes 1-7
-Meet Ben Gan's slides</t>
-  </si>
-  <si>
-    <t>Supervisor meeting minutes</t>
-  </si>
-  <si>
-    <t>FYP Acceptance Slides</t>
-  </si>
-  <si>
-    <t>Internal meeting minutes 1-8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User guide </t>
-  </si>
-  <si>
-    <t>24th July 2016</t>
-  </si>
-  <si>
-    <t>3rd Aug 2016</t>
-  </si>
-  <si>
-    <t>8th Aug 2016</t>
-  </si>
-  <si>
-    <t>Wendy</t>
-  </si>
-  <si>
-    <t>Wendy and Weilun</t>
+    <t>22nd August 2016</t>
+  </si>
+  <si>
+    <t>4th September 2016</t>
+  </si>
+  <si>
+    <t>24th September 2016</t>
+  </si>
+  <si>
+    <t>17th October 2016</t>
+  </si>
+  <si>
+    <t>UAT</t>
+  </si>
+  <si>
+    <t>Things to prepare checklist</t>
+  </si>
+  <si>
+    <t>Deadline</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>User Manual</t>
+  </si>
+  <si>
+    <t>Contact List</t>
+  </si>
+  <si>
+    <t>API documentation</t>
   </si>
 </sst>
 </file>
@@ -200,7 +243,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -214,20 +257,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -240,6 +271,21 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -518,10 +564,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -534,87 +580,121 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="7"/>
-      <c r="B1" s="14" t="s">
+      <c r="A1" s="6"/>
+      <c r="B1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="186" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="186" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="10"/>
+      <c r="D3" s="13"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="12" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="10"/>
+      <c r="C4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="13"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="9"/>
+      <c r="A5" s="12"/>
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="10"/>
+      <c r="C5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="13"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="9"/>
+      <c r="A6" s="12"/>
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="10"/>
+      <c r="C6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="13"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="9"/>
+      <c r="A7" s="12"/>
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="10"/>
+      <c r="C7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="13"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="9"/>
+      <c r="A8" s="12"/>
       <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="10"/>
+      <c r="C8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="13"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="9"/>
+      <c r="A9" s="12"/>
       <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="10"/>
+      <c r="C9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="13"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="12"/>
+      <c r="B10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="13"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="12"/>
+      <c r="B11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="D2:D9"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="D2:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -638,181 +718,181 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="10" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2"/>
-      <c r="D1" s="12" t="s">
-        <v>12</v>
+      <c r="D1" s="8" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="6" t="s">
+      <c r="A2" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="6" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="11"/>
-      <c r="B3" s="6"/>
+      <c r="A3" s="15"/>
+      <c r="B3" s="14"/>
       <c r="C3" s="2"/>
-      <c r="D3" s="6"/>
+      <c r="D3" s="14"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="11"/>
-      <c r="B4" s="6"/>
+      <c r="A4" s="15"/>
+      <c r="B4" s="14"/>
       <c r="C4" s="2"/>
-      <c r="D4" s="6"/>
+      <c r="D4" s="14"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="11"/>
-      <c r="B5" s="6"/>
+      <c r="A5" s="15"/>
+      <c r="B5" s="14"/>
       <c r="C5" s="2"/>
-      <c r="D5" s="6"/>
+      <c r="D5" s="14"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="11"/>
-      <c r="B6" s="6"/>
+      <c r="A6" s="15"/>
+      <c r="B6" s="14"/>
       <c r="C6" s="2"/>
-      <c r="D6" s="6"/>
+      <c r="D6" s="14"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="11"/>
-      <c r="B7" s="6"/>
+      <c r="A7" s="15"/>
+      <c r="B7" s="14"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="6"/>
+      <c r="D7" s="14"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="11"/>
-      <c r="B8" s="6"/>
+      <c r="A8" s="15"/>
+      <c r="B8" s="14"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="6"/>
+      <c r="D8" s="14"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="11"/>
-      <c r="B9" s="6"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="14"/>
       <c r="C9" s="2"/>
-      <c r="D9" s="6"/>
+      <c r="D9" s="14"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="11"/>
-      <c r="B10" s="6"/>
+      <c r="A10" s="15"/>
+      <c r="B10" s="14"/>
       <c r="C10" s="2"/>
-      <c r="D10" s="6"/>
+      <c r="D10" s="14"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="11"/>
-      <c r="B11" s="6"/>
+      <c r="A11" s="15"/>
+      <c r="B11" s="14"/>
       <c r="C11" s="2"/>
-      <c r="D11" s="6"/>
+      <c r="D11" s="14"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="11"/>
-      <c r="B12" s="6"/>
+      <c r="A12" s="15"/>
+      <c r="B12" s="14"/>
       <c r="C12" s="2"/>
-      <c r="D12" s="6"/>
+      <c r="D12" s="14"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="11"/>
-      <c r="B13" s="6"/>
+      <c r="A13" s="15"/>
+      <c r="B13" s="14"/>
       <c r="C13" s="2"/>
-      <c r="D13" s="6"/>
+      <c r="D13" s="14"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="6"/>
+      <c r="D14" s="14"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="11" t="s">
-        <v>11</v>
+      <c r="A15" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
-      <c r="D15" s="6"/>
+      <c r="D15" s="14"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="11"/>
+      <c r="A16" s="15"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
-      <c r="D16" s="6"/>
+      <c r="D16" s="14"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="11"/>
+      <c r="A17" s="15"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
-      <c r="D17" s="6"/>
+      <c r="D17" s="14"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="11"/>
+      <c r="A18" s="15"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
-      <c r="D18" s="6"/>
+      <c r="D18" s="14"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="11"/>
+      <c r="A19" s="15"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
-      <c r="D19" s="6"/>
+      <c r="D19" s="14"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="11"/>
+      <c r="A20" s="15"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
-      <c r="D20" s="6"/>
+      <c r="D20" s="14"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="11"/>
+      <c r="A21" s="15"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
-      <c r="D21" s="6"/>
+      <c r="D21" s="14"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="11"/>
+      <c r="A22" s="15"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
-      <c r="D22" s="6"/>
+      <c r="D22" s="14"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="11"/>
+      <c r="A23" s="15"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
-      <c r="D23" s="6"/>
+      <c r="D23" s="14"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="11"/>
+      <c r="A24" s="15"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
-      <c r="D24" s="6"/>
+      <c r="D24" s="14"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="11"/>
+      <c r="A25" s="15"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
-      <c r="D25" s="6"/>
+      <c r="D25" s="14"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="11"/>
+      <c r="A26" s="15"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
-      <c r="D26" s="6"/>
+      <c r="D26" s="14"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="11"/>
+      <c r="A27" s="15"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
-      <c r="D27" s="6"/>
+      <c r="D27" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -830,7 +910,7 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D1048576"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -843,179 +923,179 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="10" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2"/>
-      <c r="D1" s="12" t="s">
-        <v>12</v>
+      <c r="D1" s="8" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="14"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="6" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="11"/>
-      <c r="B3" s="6"/>
+      <c r="A3" s="15"/>
+      <c r="B3" s="14"/>
       <c r="C3" s="2"/>
-      <c r="D3" s="6"/>
+      <c r="D3" s="14"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="11"/>
-      <c r="B4" s="6"/>
+      <c r="A4" s="15"/>
+      <c r="B4" s="14"/>
       <c r="C4" s="2"/>
-      <c r="D4" s="6"/>
+      <c r="D4" s="14"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="11"/>
-      <c r="B5" s="6"/>
+      <c r="A5" s="15"/>
+      <c r="B5" s="14"/>
       <c r="C5" s="2"/>
-      <c r="D5" s="6"/>
+      <c r="D5" s="14"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="11"/>
-      <c r="B6" s="6"/>
+      <c r="A6" s="15"/>
+      <c r="B6" s="14"/>
       <c r="C6" s="2"/>
-      <c r="D6" s="6"/>
+      <c r="D6" s="14"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="11"/>
-      <c r="B7" s="6"/>
+      <c r="A7" s="15"/>
+      <c r="B7" s="14"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="6"/>
+      <c r="D7" s="14"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="11"/>
-      <c r="B8" s="6"/>
+      <c r="A8" s="15"/>
+      <c r="B8" s="14"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="6"/>
+      <c r="D8" s="14"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="11"/>
-      <c r="B9" s="6"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="14"/>
       <c r="C9" s="2"/>
-      <c r="D9" s="6"/>
+      <c r="D9" s="14"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="11"/>
-      <c r="B10" s="6"/>
+      <c r="A10" s="15"/>
+      <c r="B10" s="14"/>
       <c r="C10" s="2"/>
-      <c r="D10" s="6"/>
+      <c r="D10" s="14"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="11"/>
-      <c r="B11" s="6"/>
+      <c r="A11" s="15"/>
+      <c r="B11" s="14"/>
       <c r="C11" s="2"/>
-      <c r="D11" s="6"/>
+      <c r="D11" s="14"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="11"/>
-      <c r="B12" s="6"/>
+      <c r="A12" s="15"/>
+      <c r="B12" s="14"/>
       <c r="C12" s="2"/>
-      <c r="D12" s="6"/>
+      <c r="D12" s="14"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="11"/>
-      <c r="B13" s="6"/>
+      <c r="A13" s="15"/>
+      <c r="B13" s="14"/>
       <c r="C13" s="2"/>
-      <c r="D13" s="6"/>
+      <c r="D13" s="14"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="6"/>
+      <c r="D14" s="14"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="11" t="s">
-        <v>16</v>
+      <c r="A15" s="15" t="s">
+        <v>15</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
-      <c r="D15" s="6"/>
+      <c r="D15" s="14"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="11"/>
+      <c r="A16" s="15"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
-      <c r="D16" s="6"/>
+      <c r="D16" s="14"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="11"/>
+      <c r="A17" s="15"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
-      <c r="D17" s="6"/>
+      <c r="D17" s="14"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="11"/>
+      <c r="A18" s="15"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
-      <c r="D18" s="6"/>
+      <c r="D18" s="14"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="11"/>
+      <c r="A19" s="15"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
-      <c r="D19" s="6"/>
+      <c r="D19" s="14"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="11"/>
+      <c r="A20" s="15"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
-      <c r="D20" s="6"/>
+      <c r="D20" s="14"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="11"/>
+      <c r="A21" s="15"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
-      <c r="D21" s="6"/>
+      <c r="D21" s="14"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="11"/>
+      <c r="A22" s="15"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
-      <c r="D22" s="6"/>
+      <c r="D22" s="14"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="11"/>
+      <c r="A23" s="15"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
-      <c r="D23" s="6"/>
+      <c r="D23" s="14"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="11"/>
+      <c r="A24" s="15"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
-      <c r="D24" s="6"/>
+      <c r="D24" s="14"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="11"/>
+      <c r="A25" s="15"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
-      <c r="D25" s="6"/>
+      <c r="D25" s="14"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="11"/>
+      <c r="A26" s="15"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
-      <c r="D26" s="6"/>
+      <c r="D26" s="14"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="11"/>
+      <c r="A27" s="15"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
-      <c r="D27" s="6"/>
+      <c r="D27" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1032,8 +1112,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1044,171 +1124,173 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
-      <c r="C1" s="12" t="s">
-        <v>12</v>
+      <c r="C1" s="8" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
-        <v>18</v>
+      <c r="A2" s="13" t="s">
+        <v>17</v>
       </c>
       <c r="B2" s="2"/>
-      <c r="C2" s="15"/>
+      <c r="C2" s="11"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="6"/>
+      <c r="A3" s="14"/>
       <c r="B3" s="2"/>
-      <c r="C3" s="15"/>
+      <c r="C3" s="11"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="6"/>
+      <c r="A4" s="14"/>
       <c r="B4" s="2"/>
-      <c r="C4" s="15"/>
+      <c r="C4" s="11"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="6"/>
+      <c r="A5" s="14"/>
       <c r="B5" s="2"/>
-      <c r="C5" s="15"/>
+      <c r="C5" s="11"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="6"/>
+      <c r="A6" s="14"/>
       <c r="B6" s="2"/>
-      <c r="C6" s="15"/>
+      <c r="C6" s="11"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="6"/>
+      <c r="A7" s="14"/>
       <c r="B7" s="2"/>
-      <c r="C7" s="15"/>
+      <c r="C7" s="11"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="6"/>
+      <c r="A8" s="14"/>
       <c r="B8" s="2"/>
-      <c r="C8" s="15"/>
+      <c r="C8" s="11"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="6"/>
+      <c r="A9" s="14"/>
       <c r="B9" s="2"/>
-      <c r="C9" s="15"/>
+      <c r="C9" s="11"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="6"/>
+      <c r="A10" s="14"/>
       <c r="B10" s="2"/>
-      <c r="C10" s="15"/>
+      <c r="C10" s="11"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="6"/>
+      <c r="A11" s="14"/>
       <c r="B11" s="2"/>
-      <c r="C11" s="15"/>
+      <c r="C11" s="11"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="6"/>
+      <c r="A12" s="14"/>
       <c r="B12" s="2"/>
-      <c r="C12" s="15"/>
+      <c r="C12" s="11"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="6"/>
+      <c r="A13" s="14"/>
       <c r="B13" s="2"/>
-      <c r="C13" s="15"/>
+      <c r="C13" s="11"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="15"/>
+      <c r="C14" s="11"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>26</v>
+        <v>22</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>27</v>
+        <v>24</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="15"/>
+      <c r="C18" s="11"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="2"/>
+      <c r="A19" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="B19" s="2"/>
-      <c r="C19" s="15"/>
+      <c r="C19" s="11"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
-      <c r="C20" s="15"/>
+      <c r="C20" s="11"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
-      <c r="C21" s="15"/>
+      <c r="C21" s="11"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
-      <c r="C22" s="15"/>
+      <c r="C22" s="11"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
-      <c r="C23" s="15"/>
+      <c r="C23" s="11"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
-      <c r="C24" s="15"/>
+      <c r="C24" s="11"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
-      <c r="C25" s="15"/>
+      <c r="C25" s="11"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
-      <c r="C26" s="15"/>
+      <c r="C26" s="11"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
-      <c r="C27" s="15"/>
+      <c r="C27" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1232,12 +1314,106 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="40.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="16">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="16"/>
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="16"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="16"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="16"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="16"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="16"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="16"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="16"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="16">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="16"/>
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="16"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="16"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="16"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="16"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="16"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="16"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="A11:A19"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>